--- a/biology/Botanique/Charles_Joret/Charles_Joret.xlsx
+++ b/biology/Botanique/Charles_Joret/Charles_Joret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Joret, né le 14 octobre 1829 à Formigny (Calvados) et mort le 27 décembre 1914 à Paris (Seine), est un historien de la littérature, philologue et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégé d'allemand, docteur ès-lettres et diplômé de l'École pratique des hautes études, il est professeur de littérature étrangère à la Faculté des lettres d’Aix-en-Provence. Il est nommé membre de l’Académie des sciences, arts et belles-lettres de Caen le 29 juillet 1887 et il est élu membre libre de l’Académie des inscriptions et belles-lettres en 1901.
 Le nom de Charles Joret reste associé aujourd’hui à la ligne Joret, une isoglosse allant d’Avranches à Vernon, partageant le dialecte normand entre normand septentrional et normand méridional, lesquels se distinguent notamment par la palatalisation du c et du g.
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Choix de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Du C dans les langues romanes, Paris, Franck, 1874 Texte en ligne
 Herder, et la renaissance littéraire en Allemagne au XVIIIe siècle, Paris, Hachette, 1875 Texte en ligne
@@ -620,7 +638,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alexandre de Laborde, Notice sur la vie et les travaux de M. Charles Joret, Paris, Firmin-Didot, Institut de France, 1919, 66 p.</t>
         </is>
